--- a/results/ntu120.xlsx
+++ b/results/ntu120.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>classifier</t>
-  </si>
-  <si>
-    <t>dataset</t>
   </si>
   <si>
     <t>attacker</t>
@@ -56,6 +53,21 @@
   </si>
   <si>
     <t>classifier parameters</t>
+  </si>
+  <si>
+    <t>CTRGCN</t>
+  </si>
+  <si>
+    <t>SMART</t>
+  </si>
+  <si>
+    <t>BEAT</t>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.001 iteratoin 500</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.0001, 3FC</t>
   </si>
 </sst>
 </file>
@@ -91,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,15 +386,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,10 +417,10 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
       </c>
       <c r="I1" t="s">
         <v>7</v>
@@ -418,8 +434,31 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>1.96</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/results/ntu120.xlsx
+++ b/results/ntu120.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>classifier</t>
   </si>
@@ -67,7 +67,16 @@
     <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.001 iteratoin 500</t>
   </si>
   <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.0001, 3FC</t>
+    <t>STGCN</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, L:30, 2FC</t>
+  </si>
+  <si>
+    <t>adversarial train time (hrs)</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:1e-1, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, L:30, 2FC</t>
   </si>
 </sst>
 </file>
@@ -386,15 +395,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -417,7 +429,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -448,17 +460,93 @@
       <c r="D2" s="1">
         <v>0.74590000000000001</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1">
+        <v>0.95540000000000003</v>
+      </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="G2">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.74590000000000001</v>
+      </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
       <c r="K2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1.42</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>7.72</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>1.42</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>7.72</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/results/ntu120.xlsx
+++ b/results/ntu120.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293A87E4-0871-496A-A8EB-C3910960CD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>classifier</t>
   </si>
@@ -77,18 +78,57 @@
   </si>
   <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:1e-1, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, L:30, 2FC</t>
+  </si>
+  <si>
+    <t>SGN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntu120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.005, L:30, 2FC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIASA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, L:30, 2FC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -394,22 +434,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -479,7 +519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -514,7 +554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -549,7 +589,153 @@
         <v>18</v>
       </c>
     </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>3.6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.96309999999999996</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>3.6</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.37219999999999998</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>23.54</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="G13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <v>23.54</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/ntu120.xlsx
+++ b/results/ntu120.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
   <si>
     <t>classifier</t>
   </si>
@@ -64,9 +64,6 @@
     <t>BEAT</t>
   </si>
   <si>
-    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.001 iteratoin 500</t>
-  </si>
-  <si>
     <t>STGCN</t>
   </si>
   <si>
@@ -77,6 +74,24 @@
   </si>
   <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:1e-1, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, L:30, 2FC</t>
+  </si>
+  <si>
+    <t>about 69%</t>
+  </si>
+  <si>
+    <t>feature input into appended models.</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:1e-1, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, L:30, 2FC</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:1e-1, bufferSamples:'', perturbThreshold:1e-1, xWeight:0.1, clfWeight:1, xTildeWeight:0.1, lr: 0.5, L:30, 2FC</t>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:1e-1, bufferSamples:'', perturbThreshold:1e-1, xWeight:0.1, clfWeight:1, xTildeWeight:0.1, lr: 0.1, L:30, 2FC</t>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.001 iteratoin 100</t>
   </si>
 </sst>
 </file>
@@ -395,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,7 +444,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -472,16 +487,83 @@
       <c r="H2" s="1">
         <v>0.74590000000000001</v>
       </c>
+      <c r="I2" s="1">
+        <v>0.76989999999999992</v>
+      </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1.96</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.95540000000000003</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>23.4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.74580000000000002</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>1.96</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.95540000000000003</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -499,7 +581,7 @@
         <v>13</v>
       </c>
       <c r="G7">
-        <v>7.72</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="H7" s="1">
         <v>0.68340000000000001</v>
@@ -508,15 +590,15 @@
         <v>0.69299999999999995</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -534,19 +616,52 @@
         <v>13</v>
       </c>
       <c r="G8">
-        <v>7.72</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="H8" s="1">
         <v>0.68340000000000001</v>
       </c>
-      <c r="I8" s="1">
-        <v>0.69299999999999995</v>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="K8" t="s">
-        <v>18</v>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1.42</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.68159999999999998</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/results/ntu120.xlsx
+++ b/results/ntu120.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293A87E4-0871-496A-A8EB-C3910960CD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B536D444-E180-4FB3-9598-72DB93E7210D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t>classifier</t>
   </si>
@@ -84,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ntu120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BEAT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +105,10 @@
   </si>
   <si>
     <t>MSG3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT(SMART-20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -594,37 +594,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>3.6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.96309999999999996</v>
+      </c>
+      <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10">
-        <v>3.6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.74150000000000005</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.96309999999999996</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="G10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="J10" t="s">
         <v>21</v>
-      </c>
-      <c r="H10">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.73470000000000002</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.39050000000000001</v>
       </c>
       <c r="K10" t="s">
         <v>22</v>
-      </c>
-      <c r="L10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -632,106 +629,164 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>3.6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.37219999999999998</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
         <v>24</v>
       </c>
-      <c r="D11">
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
         <v>3.6</v>
       </c>
-      <c r="E11" s="1">
+      <c r="D12" s="1">
         <v>0.74150000000000005</v>
       </c>
-      <c r="F11" s="1">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="E12" s="1">
+        <v>0.96309999999999996</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <v>27.5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" t="s">
         <v>21</v>
       </c>
-      <c r="H11">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.73470000000000002</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0.37219999999999998</v>
-      </c>
-      <c r="K11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>3.6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
-        <v>23.54</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.84709999999999996</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.88849999999999996</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="G13">
+        <v>27.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>23.54</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.84709999999999996</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.97809999999999997</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" t="s">
+    </row>
+    <row r="15" spans="1:12">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>23.54</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
         <v>22</v>
       </c>
-      <c r="L14" t="s">
-        <v>23</v>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>23.54</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/results/ntu120.xlsx
+++ b/results/ntu120.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>classifier</t>
   </si>
@@ -76,22 +76,28 @@
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:1e-1, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, L:30, 2FC</t>
   </si>
   <si>
-    <t>about 69%</t>
-  </si>
-  <si>
     <t>feature input into appended models.</t>
   </si>
   <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:1e-1, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, L:30, 2FC</t>
   </si>
   <si>
-    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:1e-1, bufferSamples:'', perturbThreshold:1e-1, xWeight:0.1, clfWeight:1, xTildeWeight:0.1, lr: 0.5, L:30, 2FC</t>
-  </si>
-  <si>
     <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:1e-1, bufferSamples:'', perturbThreshold:1e-1, xWeight:0.1, clfWeight:1, xTildeWeight:0.1, lr: 0.1, L:30, 2FC</t>
   </si>
   <si>
     <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.001 iteratoin 100</t>
+  </si>
+  <si>
+    <t>~ 76.71%</t>
+  </si>
+  <si>
+    <t>~ 69%</t>
+  </si>
+  <si>
+    <t>CIASA</t>
+  </si>
+  <si>
+    <t>~ 68%</t>
   </si>
 </sst>
 </file>
@@ -410,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +488,7 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>9.4499999999999993</v>
+        <v>23.4</v>
       </c>
       <c r="H2" s="1">
         <v>0.74590000000000001</v>
@@ -491,7 +497,7 @@
         <v>0.76989999999999992</v>
       </c>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -524,10 +530,10 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -549,119 +555,199 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="G4">
+        <v>23.4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>1.96</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>23.4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>1.42</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>1.42</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.90820000000000001</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C21">
         <v>1.42</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D21" s="1">
         <v>0.68340000000000001</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E21" s="1">
         <v>0.90820000000000001</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F21" t="s">
         <v>13</v>
       </c>
-      <c r="G7">
+      <c r="G21">
         <v>19.670000000000002</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H21" s="1">
         <v>0.68340000000000001</v>
       </c>
-      <c r="I7" s="1">
-        <v>0.69299999999999995</v>
-      </c>
-      <c r="J7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="I21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
         <v>1.42</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D23" s="1">
         <v>0.68340000000000001</v>
       </c>
-      <c r="E8" s="1">
-        <v>0.90820000000000001</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" t="s">
         <v>13</v>
       </c>
-      <c r="G8">
+      <c r="G23">
         <v>19.670000000000002</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H23" s="1">
         <v>0.68340000000000001</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I23" s="1"/>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
         <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
-        <v>1.42</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.68340000000000001</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.90820000000000001</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0.68159999999999998</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/results/ntu120.xlsx
+++ b/results/ntu120.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
   <si>
     <t>classifier</t>
   </si>
@@ -88,23 +88,17 @@
     <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.001 iteratoin 100</t>
   </si>
   <si>
-    <t>~ 76.71%</t>
-  </si>
-  <si>
     <t>~ 69%</t>
   </si>
   <si>
     <t>CIASA</t>
-  </si>
-  <si>
-    <t>~ 68%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,13 +106,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,14 +135,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -536,41 +545,41 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1.96</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>0.74590000000000001</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>0.95540000000000003</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>23.4</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>0.74590000000000001</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I4" s="3">
+        <v>0.7671</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -579,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>1.96</v>
@@ -587,7 +596,9 @@
       <c r="D6" s="1">
         <v>0.74590000000000001</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>0.99439999999999995</v>
+      </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
@@ -597,7 +608,9 @@
       <c r="H6" s="1">
         <v>0.74590000000000001</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>0.81930000000000003</v>
+      </c>
       <c r="J6" t="s">
         <v>21</v>
       </c>
@@ -669,7 +682,7 @@
         <v>0.68340000000000001</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
         <v>21</v>
@@ -678,41 +691,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:12" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>1.42</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="3">
         <v>0.68340000000000001</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="3">
         <v>0.90820000000000001</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>19.670000000000002</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="3">
         <v>0.68340000000000001</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="I21" s="3">
+        <v>0.68089999999999995</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L21" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -721,7 +734,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>1.42</v>
@@ -729,7 +742,9 @@
       <c r="D23" s="1">
         <v>0.68340000000000001</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>0.99199999999999999</v>
+      </c>
       <c r="F23" t="s">
         <v>13</v>
       </c>
@@ -739,7 +754,9 @@
       <c r="H23" s="1">
         <v>0.68340000000000001</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1">
+        <v>0.77190000000000003</v>
+      </c>
       <c r="J23" t="s">
         <v>21</v>
       </c>

--- a/results/ntu120.xlsx
+++ b/results/ntu120.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
   <si>
     <t>classifier</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t>CIASA</t>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.001 iteratoin 60</t>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.001 iteratoin 50</t>
   </si>
 </sst>
 </file>
@@ -425,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,6 +627,44 @@
         <v>18</v>
       </c>
     </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.95740000000000003</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2">
+        <v>23.4</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.74590000000000001</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.77729999999999999</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
@@ -764,6 +808,44 @@
         <v>20</v>
       </c>
       <c r="L23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0.68340000000000001</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/results/ntu120.xlsx
+++ b/results/ntu120.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB344CD-511B-431B-922F-3325AD04CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="36">
   <si>
     <t>classifier</t>
   </si>
@@ -97,18 +98,59 @@
     <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.001 iteratoin 60</t>
   </si>
   <si>
+    <t>SGN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BEAT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.005, L:30, 2FC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIASA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 0.5, L:30, 2FC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AT(SMART-20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.001 iteratoin 50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>at: ab, pl:l2_acc-bone, ur:gd, cw:0.6, rw:0.4, blw:0.7, cp:0.001 iteratoin 100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG3D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>burnIn: 0 (initialise with pre-trained minValLossModel), samplingStep: 10, drvWeight:1e-5, bufferSize: 100, reinitFreq:0.05, sgldLr:2, sgldStd:5e-3, bufferSamples:'', perturbThreshold:5e-2, xWeight:0.01, clfWeight:1, xTildeWeight:0.005, lr: 1e-4, L:30, 2FC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -117,6 +159,13 @@
       <color rgb="FF006100"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -430,22 +479,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -518,7 +567,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -551,7 +600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -580,7 +629,7 @@
         <v>0.7671</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>20</v>
@@ -589,7 +638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -618,7 +667,7 @@
         <v>0.81930000000000003</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="K6" t="s">
         <v>20</v>
@@ -627,7 +676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="12.75">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -656,7 +705,7 @@
         <v>0.77729999999999999</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>20</v>
@@ -665,7 +714,141 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>3.6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.96309999999999996</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>3.6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.37219999999999998</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>3.6</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.96309999999999996</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12">
+        <v>27.5</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>3.6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.74150000000000005</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <v>27.5</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.94630000000000003</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -700,7 +883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -735,7 +918,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="2" customFormat="1" ht="12.75">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -773,7 +956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -811,7 +994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="2" customFormat="1" ht="12.75">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -849,7 +1032,72 @@
         <v>18</v>
       </c>
     </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>23.54</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.88849999999999996</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0.37509999999999999</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>23.54</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.84709999999999996</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.3987</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>